--- a/FacebookCatalog/Ddivas/iluria-buscape-relatorio-de-produtos.xlsx
+++ b/FacebookCatalog/Ddivas/iluria-buscape-relatorio-de-produtos.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="203">
   <si>
     <t>id_produto</t>
   </si>
@@ -68,48 +68,12 @@
     <t>655CF9</t>
   </si>
   <si>
-    <t>65AC3C</t>
-  </si>
-  <si>
-    <t>65AC51</t>
-  </si>
-  <si>
-    <t>65AC79</t>
-  </si>
-  <si>
-    <t>65AC91</t>
-  </si>
-  <si>
-    <t>65ACB4</t>
+    <t>656587</t>
   </si>
   <si>
     <t>65ACC2</t>
   </si>
   <si>
-    <t>65ACC6</t>
-  </si>
-  <si>
-    <t>65ACCF</t>
-  </si>
-  <si>
-    <t>65ACE1</t>
-  </si>
-  <si>
-    <t>65ACEB</t>
-  </si>
-  <si>
-    <t>65ACF4</t>
-  </si>
-  <si>
-    <t>65ACFF</t>
-  </si>
-  <si>
-    <t>65AD0F</t>
-  </si>
-  <si>
-    <t>65AD1D</t>
-  </si>
-  <si>
     <t>65D141</t>
   </si>
   <si>
@@ -131,15 +95,30 @@
     <t>65FA20</t>
   </si>
   <si>
+    <t>660449</t>
+  </si>
+  <si>
     <t>6604BE</t>
   </si>
   <si>
     <t>6604C7</t>
   </si>
   <si>
+    <t>6604E0</t>
+  </si>
+  <si>
     <t>6604F2</t>
   </si>
   <si>
+    <t>660500</t>
+  </si>
+  <si>
+    <t>660514</t>
+  </si>
+  <si>
+    <t>660537</t>
+  </si>
+  <si>
     <t>66B35A</t>
   </si>
   <si>
@@ -164,6 +143,30 @@
     <t>66C79D</t>
   </si>
   <si>
+    <t>66FE0D</t>
+  </si>
+  <si>
+    <t>66FE15</t>
+  </si>
+  <si>
+    <t>66FE21</t>
+  </si>
+  <si>
+    <t>66FE2D</t>
+  </si>
+  <si>
+    <t>66FE30</t>
+  </si>
+  <si>
+    <t>66FE36</t>
+  </si>
+  <si>
+    <t>671CB5</t>
+  </si>
+  <si>
+    <t>671CEE</t>
+  </si>
+  <si>
     <t>http://www.ddivas.com.br/pd-60d41c-brinco-sol-e-lua.html</t>
   </si>
   <si>
@@ -182,48 +185,9 @@
     <t>http://www.ddivas.com.br/pd-656587-top-1-ombro-so-onca.html</t>
   </si>
   <si>
-    <t>http://www.ddivas.com.br/pd-65ac3c-argola-manga-doce.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65ac51-brinco-amisty.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65ac79-brinco-manga-doce.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65ac91-brinco-laluna.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65acb4-brinco-digna.html</t>
-  </si>
-  <si>
     <t>http://www.ddivas.com.br/pd-65acc2-brinco-triangulo.html</t>
   </si>
   <si>
-    <t>http://www.ddivas.com.br/pd-65acc6-brinco-scarlet.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65accf-brinco-chiara.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65ace1-brinco-yumi.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65aceb-brinco-laluna-buzio.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65acf4-brinco-suri.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65acff-brinco-egipcia.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65ad0f-brinco-vibrante.html</t>
-  </si>
-  <si>
-    <t>http://www.ddivas.com.br/pd-65ad1d-brinco-circulo.html</t>
-  </si>
-  <si>
     <t>http://www.ddivas.com.br/pd-65d141-brinco-jasmim.html</t>
   </si>
   <si>
@@ -293,6 +257,30 @@
     <t>http://www.ddivas.com.br/pd-66c79d-short-estonado.html</t>
   </si>
   <si>
+    <t>http://www.ddivas.com.br/pd-66fe0d-brinco-cozumel.html</t>
+  </si>
+  <si>
+    <t>http://www.ddivas.com.br/pd-66fe15-brinco-sayulita.html</t>
+  </si>
+  <si>
+    <t>http://www.ddivas.com.br/pd-66fe21-brinco-acapulco.html</t>
+  </si>
+  <si>
+    <t>http://www.ddivas.com.br/pd-66fe2d-brinco-cancun.html</t>
+  </si>
+  <si>
+    <t>http://www.ddivas.com.br/pd-66fe30-brinco-circulo.html</t>
+  </si>
+  <si>
+    <t>http://www.ddivas.com.br/pd-66fe36-brinco-bubble.html</t>
+  </si>
+  <si>
+    <t>http://www.ddivas.com.br/pd-671cb5-brinco-geometrico.html</t>
+  </si>
+  <si>
+    <t>http://www.ddivas.com.br/pd-671cee-brinco-tie-dye-g.html</t>
+  </si>
+  <si>
     <t>BRINCO SOL E LUA</t>
   </si>
   <si>
@@ -311,109 +299,94 @@
     <t>TOP 1 OMBRO SÓ ONÇA</t>
   </si>
   <si>
-    <t>ARGOLA MANGA DOCE</t>
-  </si>
-  <si>
-    <t>BRINCO AMISTY</t>
-  </si>
-  <si>
-    <t>BRINCO MANGA DOCE</t>
-  </si>
-  <si>
-    <t>BRINCO LALUNA</t>
-  </si>
-  <si>
-    <t>BRINCO DIGNA</t>
-  </si>
-  <si>
     <t>BRINCO TRIÂNGULO</t>
   </si>
   <si>
-    <t>BRINCO SCARLET</t>
-  </si>
-  <si>
-    <t>BRINCO CHIARA</t>
-  </si>
-  <si>
-    <t>BRINCO YUMI</t>
-  </si>
-  <si>
-    <t>BRINCO LALUNA BÚZIO</t>
-  </si>
-  <si>
-    <t>BRINCO SURI</t>
-  </si>
-  <si>
-    <t>BRINCO EGÍPCIA</t>
-  </si>
-  <si>
-    <t>BRINCO VIBRANTE</t>
+    <t>BRINCO JASMIM</t>
+  </si>
+  <si>
+    <t>COSTELA DE ADÃO OURO VELHO</t>
+  </si>
+  <si>
+    <t>BRINCO COSTELA DE ADÃO PRATA</t>
+  </si>
+  <si>
+    <t>BRINCO GOTA</t>
+  </si>
+  <si>
+    <t>BRINCO TASSEL DE SEDA</t>
+  </si>
+  <si>
+    <t>BRINCO TIE DYE</t>
+  </si>
+  <si>
+    <t>BRINCO TULUM</t>
+  </si>
+  <si>
+    <t>BRINCO CHUVA PRATA</t>
+  </si>
+  <si>
+    <t>BRINCO LUA CHEIA</t>
+  </si>
+  <si>
+    <t>BRINCO DIVA</t>
+  </si>
+  <si>
+    <t>BRINCO COSTELA DE ADÃO</t>
+  </si>
+  <si>
+    <t>BRINCO LUA NEGRA</t>
+  </si>
+  <si>
+    <t>BRINCO LUA</t>
+  </si>
+  <si>
+    <t>MACACÃO JEANS</t>
+  </si>
+  <si>
+    <t>BOLSA ESTRUTURADA PRETA</t>
+  </si>
+  <si>
+    <t>BLUSÃO BICOLOR</t>
+  </si>
+  <si>
+    <t>ÓCULOS RETRO</t>
+  </si>
+  <si>
+    <t>BODY PRAIÔ</t>
+  </si>
+  <si>
+    <t>ÓCULOS LEOPARD</t>
+  </si>
+  <si>
+    <t>TOP NEON</t>
+  </si>
+  <si>
+    <t>SHORT ESTONADO</t>
+  </si>
+  <si>
+    <t>BRINCO COZUMEL</t>
+  </si>
+  <si>
+    <t>BRINCO SAYULITA</t>
+  </si>
+  <si>
+    <t>BRINCO ACAPULCO</t>
+  </si>
+  <si>
+    <t>BRINCO CANCUN</t>
   </si>
   <si>
     <t>BRINCO CÍRCULO</t>
   </si>
   <si>
-    <t>BRINCO JASMIM</t>
-  </si>
-  <si>
-    <t>COSTELA DE ADÃO OURO VELHO</t>
-  </si>
-  <si>
-    <t>BRINCO COSTELA DE ADÃO PRATA</t>
-  </si>
-  <si>
-    <t>BRINCO GOTA</t>
-  </si>
-  <si>
-    <t>BRINCO TASSEL DE SEDA</t>
-  </si>
-  <si>
-    <t>BRINCO TIE DYE</t>
-  </si>
-  <si>
-    <t>BRINCO TULUM</t>
-  </si>
-  <si>
-    <t>BRINCO CHUVA PRATA</t>
-  </si>
-  <si>
-    <t>BRINCO LUA CHEIA</t>
-  </si>
-  <si>
-    <t>BRINCO DIVA</t>
-  </si>
-  <si>
-    <t>BRINCO COSTELA DE ADÃO</t>
-  </si>
-  <si>
-    <t>BRINCO LUA NEGRA</t>
-  </si>
-  <si>
-    <t>BRINCO LUA</t>
-  </si>
-  <si>
-    <t>MACACÃO JEANS</t>
-  </si>
-  <si>
-    <t>BOLSA ESTRUTURADA PRETA</t>
-  </si>
-  <si>
-    <t>BLUSÃO BICOLOR</t>
-  </si>
-  <si>
-    <t>ÓCULOS RETRO</t>
-  </si>
-  <si>
-    <t>BODY PRAIÔ</t>
-  </si>
-  <si>
-    <t>ÓCULOS LEOPARD</t>
-  </si>
-  <si>
-    <t>TOP NEON</t>
-  </si>
-  <si>
-    <t>SHORT ESTONADO</t>
+    <t>BRINCO BUBBLE</t>
+  </si>
+  <si>
+    <t>BRINCO GEOMÉTRICO</t>
+  </si>
+  <si>
+    <t>BRINCO TIE DYE G</t>
   </si>
   <si>
     <t>29,90</t>
@@ -431,18 +404,9 @@
     <t>17,50</t>
   </si>
   <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
     <t>25,00</t>
   </si>
   <si>
-    <t>26,00</t>
-  </si>
-  <si>
     <t>29,00</t>
   </si>
   <si>
@@ -476,6 +440,9 @@
     <t>59,00</t>
   </si>
   <si>
+    <t>42,00</t>
+  </si>
+  <si>
     <t>5 x R$ 6,43</t>
   </si>
   <si>
@@ -491,18 +458,9 @@
     <t>3 x R$ 6,12</t>
   </si>
   <si>
-    <t>3 x R$ 6,29</t>
-  </si>
-  <si>
-    <t>6 x R$ 5,44</t>
-  </si>
-  <si>
     <t>5 x R$ 5,38</t>
   </si>
   <si>
-    <t>5 x R$ 5,59</t>
-  </si>
-  <si>
     <t>5 x R$ 6,24</t>
   </si>
   <si>
@@ -536,6 +494,9 @@
     <t>11 x R$ 6,20</t>
   </si>
   <si>
+    <t>8 x R$ 5,86</t>
+  </si>
+  <si>
     <t>Disponível</t>
   </si>
   <si>
@@ -557,48 +518,9 @@
     <t>http://s3.amazonaws.com/img.iluria.com/product/656587/F9B8F7/450xN.jpg</t>
   </si>
   <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65AC3C/FA70DA/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65AC51/FA7103/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65AC79/FA715F/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65AC91/FA7189/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65ACB4/FA71DE/450xN.jpg</t>
-  </si>
-  <si>
     <t>http://s3.amazonaws.com/img.iluria.com/product/65ACC2/FA7207/450xN.jpg</t>
   </si>
   <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65ACC6/FA7215/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65ACCF/FA722C/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65ACE1/FA724F/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65ACEB/FA7265/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65ACF4/FA727E/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65ACFF/FA72B0/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65AD0F/FA72E3/450xN.jpg</t>
-  </si>
-  <si>
-    <t>http://s3.amazonaws.com/img.iluria.com/product/65AD1D/FA730E/450xN.jpg</t>
-  </si>
-  <si>
     <t>http://s3.amazonaws.com/img.iluria.com/product/65D141/FACF18/450xN.jpg</t>
   </si>
   <si>
@@ -666,6 +588,30 @@
   </si>
   <si>
     <t>http://s3.amazonaws.com/img.iluria.com/product/66C79D/FD52AE/450xN.jpg</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/img.iluria.com/product/66FE0D/FDE657/450xN.jpg</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/img.iluria.com/product/66FE15/FDE668/450xN.jpg</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/img.iluria.com/product/66FE21/FDE67A/450xN.jpg</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/img.iluria.com/product/66FE2D/FDE689/450xN.jpg</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/img.iluria.com/product/66FE30/FDE68C/450xN.jpg</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/img.iluria.com/product/66FE36/FDE698/450xN.jpg</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/img.iluria.com/product/671CB5/FE32D7/450xN.jpg</t>
+  </si>
+  <si>
+    <t>http://s3.amazonaws.com/img.iluria.com/product/671CEE/FE3339/450xN.jpg</t>
   </si>
   <si>
     <t>Marcas &gt; Rebelare</t>
@@ -734,12 +680,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -791,8 +735,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H44" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H39" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:H39"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="id_produto" name="id_produto">
       <xmlColumnPr mapId="1" xpath="/produtos/produto/id_produto" xmlDataType="string"/>
@@ -1086,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1098,7 +1042,7 @@
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1133,25 +1077,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,25 +1103,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1185,25 +1129,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1211,25 +1155,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,1008 +1181,878 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>656587</v>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>660449</v>
+      <c r="A29" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>6604</v>
+      <c r="A32" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>660500</v>
+      <c r="A34" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>660514</v>
+      <c r="A35" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>660537</v>
+      <c r="A36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2280,58 +2094,49 @@
     <hyperlink ref="B37" r:id="rId36"/>
     <hyperlink ref="B38" r:id="rId37"/>
     <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="G2" r:id="rId44"/>
-    <hyperlink ref="G3" r:id="rId45"/>
-    <hyperlink ref="G4" r:id="rId46"/>
-    <hyperlink ref="G5" r:id="rId47"/>
-    <hyperlink ref="G6" r:id="rId48"/>
-    <hyperlink ref="G7" r:id="rId49"/>
-    <hyperlink ref="G8" r:id="rId50"/>
-    <hyperlink ref="G9" r:id="rId51"/>
-    <hyperlink ref="G10" r:id="rId52"/>
-    <hyperlink ref="G11" r:id="rId53"/>
-    <hyperlink ref="G12" r:id="rId54"/>
-    <hyperlink ref="G13" r:id="rId55"/>
-    <hyperlink ref="G14" r:id="rId56"/>
-    <hyperlink ref="G15" r:id="rId57"/>
-    <hyperlink ref="G16" r:id="rId58"/>
-    <hyperlink ref="G17" r:id="rId59"/>
-    <hyperlink ref="G18" r:id="rId60"/>
-    <hyperlink ref="G19" r:id="rId61"/>
-    <hyperlink ref="G20" r:id="rId62"/>
-    <hyperlink ref="G21" r:id="rId63"/>
-    <hyperlink ref="G22" r:id="rId64"/>
-    <hyperlink ref="G23" r:id="rId65"/>
-    <hyperlink ref="G24" r:id="rId66"/>
-    <hyperlink ref="G25" r:id="rId67"/>
-    <hyperlink ref="G26" r:id="rId68"/>
-    <hyperlink ref="G27" r:id="rId69"/>
-    <hyperlink ref="G28" r:id="rId70"/>
-    <hyperlink ref="G29" r:id="rId71"/>
-    <hyperlink ref="G30" r:id="rId72"/>
-    <hyperlink ref="G31" r:id="rId73"/>
-    <hyperlink ref="G32" r:id="rId74"/>
-    <hyperlink ref="G33" r:id="rId75"/>
-    <hyperlink ref="G34" r:id="rId76"/>
-    <hyperlink ref="G35" r:id="rId77"/>
-    <hyperlink ref="G36" r:id="rId78"/>
-    <hyperlink ref="G37" r:id="rId79"/>
-    <hyperlink ref="G38" r:id="rId80"/>
-    <hyperlink ref="G39" r:id="rId81"/>
-    <hyperlink ref="G40" r:id="rId82"/>
-    <hyperlink ref="G41" r:id="rId83"/>
-    <hyperlink ref="G42" r:id="rId84"/>
-    <hyperlink ref="G43" r:id="rId85"/>
-    <hyperlink ref="G44" r:id="rId86"/>
+    <hyperlink ref="G2" r:id="rId39"/>
+    <hyperlink ref="G3" r:id="rId40"/>
+    <hyperlink ref="G4" r:id="rId41"/>
+    <hyperlink ref="G5" r:id="rId42"/>
+    <hyperlink ref="G6" r:id="rId43"/>
+    <hyperlink ref="G7" r:id="rId44"/>
+    <hyperlink ref="G8" r:id="rId45"/>
+    <hyperlink ref="G9" r:id="rId46"/>
+    <hyperlink ref="G10" r:id="rId47"/>
+    <hyperlink ref="G11" r:id="rId48"/>
+    <hyperlink ref="G12" r:id="rId49"/>
+    <hyperlink ref="G13" r:id="rId50"/>
+    <hyperlink ref="G14" r:id="rId51"/>
+    <hyperlink ref="G15" r:id="rId52"/>
+    <hyperlink ref="G16" r:id="rId53"/>
+    <hyperlink ref="G17" r:id="rId54"/>
+    <hyperlink ref="G18" r:id="rId55"/>
+    <hyperlink ref="G19" r:id="rId56"/>
+    <hyperlink ref="G20" r:id="rId57"/>
+    <hyperlink ref="G21" r:id="rId58"/>
+    <hyperlink ref="G22" r:id="rId59"/>
+    <hyperlink ref="G23" r:id="rId60"/>
+    <hyperlink ref="G24" r:id="rId61"/>
+    <hyperlink ref="G25" r:id="rId62"/>
+    <hyperlink ref="G26" r:id="rId63"/>
+    <hyperlink ref="G27" r:id="rId64"/>
+    <hyperlink ref="G28" r:id="rId65"/>
+    <hyperlink ref="G29" r:id="rId66"/>
+    <hyperlink ref="G30" r:id="rId67"/>
+    <hyperlink ref="G31" r:id="rId68"/>
+    <hyperlink ref="G32" r:id="rId69"/>
+    <hyperlink ref="G33" r:id="rId70"/>
+    <hyperlink ref="G34" r:id="rId71"/>
+    <hyperlink ref="G35" r:id="rId72"/>
+    <hyperlink ref="G36" r:id="rId73"/>
+    <hyperlink ref="G37" r:id="rId74"/>
+    <hyperlink ref="G38" r:id="rId75"/>
+    <hyperlink ref="G39" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId77"/>
   <tableParts count="1">
-    <tablePart r:id="rId87"/>
+    <tablePart r:id="rId78"/>
   </tableParts>
 </worksheet>
 </file>